--- a/src/main/resources/template/excel/export/memberTotalAll.xlsx
+++ b/src/main/resources/template/excel/export/memberTotalAll.xlsx
@@ -273,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,9 +294,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,7 +672,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,7 +721,7 @@
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
